--- a/tests/test_data/Banking/Skipton/Data/transactions.xlsx
+++ b/tests/test_data/Banking/Skipton/Data/transactions.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Code/PersonalFinance/personal-finance/tests/test_data/Banking/Skipton/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA41DD9-7CD2-A54D-9B40-1DAF95B51FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC160996-EF20-1A45-9FA2-6897D45E6D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54720" yWindow="-8520" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{C461FC9C-D98C-0E43-AE3E-89D5F91DCD76}"/>
+    <workbookView xWindow="-54720" yWindow="-8520" windowWidth="34560" windowHeight="21580" xr2:uid="{C461FC9C-D98C-0E43-AE3E-89D5F91DCD76}"/>
   </bookViews>
   <sheets>
     <sheet name="transactions" sheetId="1" r:id="rId1"/>
     <sheet name="lookups" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">transactions!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">transactions!$B$1:$J$4</definedName>
     <definedName name="categories">lookups!$D$1:$E$11</definedName>
     <definedName name="taxYears">lookups!$A$1:$B$11</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>2025-26</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>998976130</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +145,12 @@
       <color rgb="FF575757"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +194,7 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,245 +529,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D7C584-D2DF-FB41-AA64-AF8CC824D38B}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>45251</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
         <v>50</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>50.5</v>
       </c>
-      <c r="F2" s="11">
-        <f t="shared" ref="F2:F4" si="0">C2+D2*-1</f>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:G4" si="0">D2+E2*-1</f>
         <v>-50</v>
       </c>
-      <c r="G2" s="11" t="str">
-        <f t="shared" ref="G2" si="1">VLOOKUP(B2, categories, 2, FALSE)</f>
+      <c r="H2" s="11" t="str">
+        <f t="shared" ref="H2" si="1">VLOOKUP(C2, categories, 2, FALSE)</f>
         <v>Withdrawal</v>
       </c>
-      <c r="H2" s="10" t="str">
-        <f t="shared" ref="H2" si="2">VLOOKUP(A2, taxYears, 2,TRUE)</f>
+      <c r="I2" s="10" t="str">
+        <f t="shared" ref="I2" si="2">VLOOKUP(B2, taxYears, 2,TRUE)</f>
         <v>2023-24</v>
       </c>
-      <c r="I2" t="b">
-        <f>E2=SUM(F2:F$4)</f>
+      <c r="J2" t="b">
+        <f>F2=SUM(G2:G$4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7">
         <v>44877</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>0.5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>100.5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G4" si="3">VLOOKUP(B3, categories, 2, FALSE)</f>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3:H4" si="3">VLOOKUP(C3, categories, 2, FALSE)</f>
         <v>Interest</v>
       </c>
-      <c r="H3" s="10" t="str">
-        <f t="shared" ref="H3:H4" si="4">VLOOKUP(A3, taxYears, 2,TRUE)</f>
+      <c r="I3" s="10" t="str">
+        <f t="shared" ref="I3:I4" si="4">VLOOKUP(B3, taxYears, 2,TRUE)</f>
         <v>2022-23</v>
       </c>
-      <c r="I3" t="b">
-        <f>E3=SUM(F3:F$4)</f>
+      <c r="J3" t="b">
+        <f>F3=SUM(G3:G$4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7">
         <v>44847</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="H4" s="11" t="str">
         <f t="shared" si="3"/>
         <v>Deposit</v>
       </c>
-      <c r="H4" s="10" t="str">
+      <c r="I4" s="10" t="str">
         <f t="shared" si="4"/>
         <v>2022-23</v>
       </c>
-      <c r="I4" t="b">
-        <f>E4=SUM(F4:F$4)</f>
+      <c r="J4" t="b">
+        <f>F4=SUM(G4:G$4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F5" s="11"/>
+    <row r="5" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F6" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F7" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F8" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F9" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F10" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F11" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F12" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F13" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F14" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F15" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="F16" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F17" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F18" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F19" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F20" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F21" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F22" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F24" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F25" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F26" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F27" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="6:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="F28" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="7:8" ht="20" x14ac:dyDescent="0.2">
       <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I4" xr:uid="{37D7C584-D2DF-FB41-AA64-AF8CC824D38B}"/>
+  <autoFilter ref="B1:J4" xr:uid="{37D7C584-D2DF-FB41-AA64-AF8CC824D38B}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -763,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558B90C8-0217-4147-BF5D-A51A92F25338}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
